--- a/Communications/Bitacora-Comunicaciones.xlsx
+++ b/Communications/Bitacora-Comunicaciones.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cindy\Desktop\ProyectoSoftware2\IS2_DMatute-2P\Communications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karinasaylema/Documents/ESPOL/ING/LosIonicos/Communications/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4929E0-835C-2840-9846-4F7BD2E9264E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21920" windowHeight="8440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Nombre del archivo</t>
   </si>
@@ -81,12 +82,48 @@
   </si>
   <si>
     <t>Acta de reunión para definir requerimientos del proyecto</t>
+  </si>
+  <si>
+    <t>Correo de consulta</t>
+  </si>
+  <si>
+    <t>Correo donde se realiza una consulta que teniamos</t>
+  </si>
+  <si>
+    <t>Correo de reunión de entrega</t>
+  </si>
+  <si>
+    <t>Correo donde se coordina reunión de entrega</t>
+  </si>
+  <si>
+    <t>Respuesta de consulta</t>
+  </si>
+  <si>
+    <t>Correo donde cliente responde consulta que hicimos</t>
+  </si>
+  <si>
+    <t>Carta de aceptación final</t>
+  </si>
+  <si>
+    <t>Carta de aceptación de la entrega final</t>
+  </si>
+  <si>
+    <t>Correo carta de aceptación</t>
+  </si>
+  <si>
+    <t>Correo donde se envía la carta de aceptación para que cliente firme</t>
+  </si>
+  <si>
+    <t>Correo de envío de proceso</t>
+  </si>
+  <si>
+    <t>Correo donde se envió el proceso levantado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,16 +177,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,6 +206,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,34 +496,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" customWidth="1"/>
+    <col min="3" max="3" width="55.1640625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -475,112 +531,238 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>43794</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>44006</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>44027</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>44006</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="1048576" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5">
+        <v>44063</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5">
+        <v>44067</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="5">
+        <v>44064</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5">
+        <v>44071</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5">
+        <v>44070</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5">
+        <v>44061</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="1048576" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E1048576" t="s">
         <v>8</v>
       </c>
